--- a/MultiServerAuth-MultiRoutingAuth/Roles and scopes mapping.xlsx
+++ b/MultiServerAuth-MultiRoutingAuth/Roles and scopes mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I537744/dev/SAP/SAP_CFSamples/MultiServerAuth-MultiRoutingAuth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53735B8-29F6-054E-BBE4-51B79931E0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD3382-2D73-5044-BCB8-E388EF665766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25980" yWindow="620" windowWidth="21560" windowHeight="26580" xr2:uid="{0C78704F-321F-2E41-ACCC-58116A9301CF}"/>
+    <workbookView xWindow="25980" yWindow="500" windowWidth="21560" windowHeight="26600" xr2:uid="{0C78704F-321F-2E41-ACCC-58116A9301CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,25 +175,25 @@
     <t>two_api_admin</t>
   </si>
   <si>
-    <t>two_admin</t>
-  </si>
-  <si>
     <t>TWO Admin</t>
   </si>
   <si>
     <t>ONE Admin</t>
   </si>
   <si>
-    <t>one_admin</t>
-  </si>
-  <si>
-    <t>basic_user</t>
-  </si>
-  <si>
     <t>one_api_basic_editor</t>
   </si>
   <si>
     <t>two_api_basic_reader</t>
+  </si>
+  <si>
+    <t>multiauth_basic_user</t>
+  </si>
+  <si>
+    <t>multiauth_one_admin</t>
+  </si>
+  <si>
+    <t>multiauth_two_admin</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1661,7 @@
   <dimension ref="B3:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1922,7 @@
       <c r="D22" s="33"/>
       <c r="E22" s="34"/>
       <c r="F22" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>7</v>
@@ -1990,7 +1990,7 @@
         <v>31</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>7</v>
@@ -2212,10 +2212,10 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F47" s="72" t="s">
         <v>39</v>
@@ -2240,10 +2240,10 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="75" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F49" s="76" t="s">
         <v>45</v>

--- a/MultiServerAuth-MultiRoutingAuth/Roles and scopes mapping.xlsx
+++ b/MultiServerAuth-MultiRoutingAuth/Roles and scopes mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I537744/dev/SAP/SAP_CFSamples/MultiServerAuth-MultiRoutingAuth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD3382-2D73-5044-BCB8-E388EF665766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE6F59-FB2A-6548-8536-EE259B9E26F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25980" yWindow="500" windowWidth="21560" windowHeight="26600" xr2:uid="{0C78704F-321F-2E41-ACCC-58116A9301CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>SCOPES</t>
   </si>
@@ -67,27 +67,15 @@
     <t>$XSAPPNAME.basic_write</t>
   </si>
   <si>
-    <t>READ all</t>
-  </si>
-  <si>
     <t>$XSAPPNAME.admin_read</t>
   </si>
   <si>
-    <t>WRITE all</t>
-  </si>
-  <si>
-    <t>$XSAPPNAME.admin_write</t>
-  </si>
-  <si>
     <t>Central Routing Restriction</t>
   </si>
   <si>
     <t>central_approuter</t>
   </si>
   <si>
-    <t>central_approuter_xsuaa</t>
-  </si>
-  <si>
     <t>Allow routing to HTML5 App Repo Runtime</t>
   </si>
   <si>
@@ -124,15 +112,9 @@
     <t>one_api</t>
   </si>
   <si>
-    <t>one_api_xsuaa</t>
-  </si>
-  <si>
     <t>two_api</t>
   </si>
   <si>
-    <t>two_api_xsuaa</t>
-  </si>
-  <si>
     <t>Allow routing to two_api server</t>
   </si>
   <si>
@@ -194,6 +176,30 @@
   </si>
   <si>
     <t>multiauth_two_admin</t>
+  </si>
+  <si>
+    <t>central_approuter-xsuaa</t>
+  </si>
+  <si>
+    <t>$XSAPPNAME.one_api_basic_read</t>
+  </si>
+  <si>
+    <t>$XSAPPNAME.one_api_basic_write</t>
+  </si>
+  <si>
+    <t>$XSAPPNAME.one_api_admin</t>
+  </si>
+  <si>
+    <t>READ and WRITE all</t>
+  </si>
+  <si>
+    <t>$XSAPPNAME.two_api_admin</t>
+  </si>
+  <si>
+    <t>$XSAPPNAME.two_api_basic_write</t>
+  </si>
+  <si>
+    <t>$XSAPPNAME.two_api_basic_read</t>
   </si>
 </sst>
 </file>
@@ -268,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -450,19 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
@@ -730,32 +723,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="1" tint="0.249977111117893"/>
       </right>
@@ -839,58 +806,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1089,6 +1004,60 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,17 +1065,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1114,235 +1077,229 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1658,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF25D06-8E3B-E046-96A4-5741400346D4}">
-  <dimension ref="B3:G51"/>
+  <dimension ref="B3:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="D42" sqref="D42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,624 +1642,535 @@
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>7</v>
+      <c r="G6" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>9</v>
+      <c r="G7" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>11</v>
+      <c r="C8" s="54"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>13</v>
+      <c r="C9" s="54"/>
+      <c r="D9" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>7</v>
+      <c r="C10" s="54"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>9</v>
+      <c r="C11" s="54"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="C12" s="42" t="s">
         <v>11</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>13</v>
+      <c r="C13" s="43"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>33</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>4</v>
+      <c r="C20" s="54"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="C21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>7</v>
+      <c r="C21" s="54"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="17" t="s">
-        <v>9</v>
+      <c r="C23" s="54"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>7</v>
+      <c r="C24" s="54"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="15" t="s">
-        <v>9</v>
+      <c r="C25" s="54"/>
+      <c r="D25" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="15" t="s">
-        <v>11</v>
+      <c r="C26" s="54"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="17" t="s">
-        <v>13</v>
+      <c r="C27" s="54"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>7</v>
+      <c r="C28" s="54"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>7</v>
+      <c r="C29" s="54"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="17" t="s">
-        <v>9</v>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="49"/>
       <c r="F33" s="49"/>
-      <c r="G33" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="17" t="s">
-        <v>13</v>
+      <c r="C34" s="1"/>
+      <c r="D34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="C35" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="20" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>35</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>33</v>
+      <c r="C36" s="1"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>18</v>
+      <c r="C37" s="1"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
+      <c r="D40" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="57" t="s">
-        <v>26</v>
+      <c r="D41" s="37"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="61" t="s">
+      <c r="D42" s="40" t="s">
         <v>40</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>43</v>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="74" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="C21:C34"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D19:G19"/>
+  <mergeCells count="26">
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
